--- a/analyses/tables/foliar_cn.xlsx
+++ b/analyses/tables/foliar_cn.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9774AE16-2356-864D-B004-B3E99D1C3BC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC28ECA-FD05-5545-85FC-A152CFC5F664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3360" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="8640" yWindow="7420" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foliar_cn" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -916,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,11 +987,11 @@
       <c r="D3" s="2">
         <v>0.90837928277373003</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.118677517119908</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.73149160568215199</v>
+      <c r="E3" s="1">
+        <v>0.889412488061744</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.349024916001268</v>
       </c>
       <c r="G3" s="2">
         <v>1.3821282986871299</v>
@@ -1013,11 +1013,11 @@
       <c r="D4" s="2">
         <v>0.114775011255773</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.109426361660122</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.74177241855310905</v>
+      <c r="E4" s="1">
+        <v>4.2345550660915201</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.3502921115634703E-2</v>
       </c>
       <c r="G4" s="2">
         <v>0.635427849753332</v>
@@ -1039,11 +1039,11 @@
       <c r="D5" s="2">
         <v>0.83385500214015695</v>
       </c>
-      <c r="E5" s="2">
-        <v>2.83721015023915E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.86671590359700301</v>
+      <c r="E5" s="1">
+        <v>0.59368054372753898</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.44370792261043501</v>
       </c>
       <c r="G5" s="2">
         <v>0.133852707542194</v>

--- a/analyses/tables/foliar_cn.xlsx
+++ b/analyses/tables/foliar_cn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC28ECA-FD05-5545-85FC-A152CFC5F664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF24290-5B86-6240-9C39-DCADA95E907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="7420" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="500" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foliar_cn" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Df</t>
-  </si>
-  <si>
-    <t>Residuals</t>
   </si>
   <si>
     <t>Elevation</t>
@@ -37,12 +34,6 @@
     <t>Elevation*Fire</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Foliar C</t>
   </si>
   <si>
@@ -50,6 +41,12 @@
   </si>
   <si>
     <t>Foliar CN</t>
+  </si>
+  <si>
+    <t>Chisq</t>
+  </si>
+  <si>
+    <t>Pr(&gt;Chisq)</t>
   </si>
 </sst>
 </file>
@@ -59,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,13 +191,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -498,21 +488,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -560,8 +535,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,154 +892,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.14799092769068201</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.70046274069761305</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.1038332214487701</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.29342640883534998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.6392360640675501</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.200430315403514</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.3338957727803099E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.90837928277373003</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.889412488061744</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.349024916001268</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.3821282986871299</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.24366618733746001</v>
-      </c>
+      <c r="C4" s="2">
+        <v>4.05261052790721</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.4103093563588498E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.12366749547507599</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.725090340227726</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.42510317744731801</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.514401579324685</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.5494399158404</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.114775011255773</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4.2345550660915201</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.3502921115634703E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.635427849753332</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.42802904711659101</v>
-      </c>
+      <c r="C5" s="2">
+        <v>5.4862128766782403E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.98131312502373802</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.39190331494243502</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.53130063162199404</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.7068713593407401</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.191391799306181</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.43240035641949E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.83385500214015695</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.59368054372753898</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.44370792261043501</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.133852707542194</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.71555822632013799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>71</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
